--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F80C61-E6A5-423C-BF25-36C475B0FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE3719-8610-44F7-ACFE-5C52173A500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="0" windowWidth="26460" windowHeight="20880" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="-40740" yWindow="3510" windowWidth="38700" windowHeight="15345" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Main</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Life Coaching</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Raise</t>
+  </si>
+  <si>
+    <t>Series E</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Epic</t>
   </si>
 </sst>
 </file>
@@ -474,18 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50542D6-AFC3-43C1-B9CC-368A047C0996}">
-  <dimension ref="B2:L2"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -518,6 +539,19 @@
       </c>
       <c r="L2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -527,13 +561,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF0DB2-30F2-49E4-BCD1-AAE960B87D9B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,12 +576,12 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -557,8 +591,14 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -566,17 +606,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -584,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -595,7 +635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -603,12 +643,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -617,6 +657,17 @@
       </c>
       <c r="D10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE3719-8610-44F7-ACFE-5C52173A500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C6831-D77F-4DFA-8F70-8893DCEBC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40740" yWindow="3510" windowWidth="38700" windowHeight="15345" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="19800" yWindow="465" windowWidth="28410" windowHeight="20415" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Main</t>
   </si>
@@ -133,6 +133,78 @@
   </si>
   <si>
     <t>Epic</t>
+  </si>
+  <si>
+    <t>Artera</t>
+  </si>
+  <si>
+    <t>Nayya</t>
+  </si>
+  <si>
+    <t>Series C</t>
+  </si>
+  <si>
+    <t>Elephas</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>DeepCardio</t>
+  </si>
+  <si>
+    <t>Anumana</t>
+  </si>
+  <si>
+    <t>Nile AI</t>
+  </si>
+  <si>
+    <t>Element5</t>
+  </si>
+  <si>
+    <t>Omniscient Neurotechnology</t>
+  </si>
+  <si>
+    <t>LatchBio</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>Care.ai</t>
+  </si>
+  <si>
+    <t>Beacon Biosignals</t>
+  </si>
+  <si>
+    <t>Ozette Technologies</t>
+  </si>
+  <si>
+    <t>Navina</t>
+  </si>
+  <si>
+    <t>Alife</t>
+  </si>
+  <si>
+    <t>Apella</t>
+  </si>
+  <si>
+    <t>Lokavant</t>
+  </si>
+  <si>
+    <t>Kintsugi</t>
+  </si>
+  <si>
+    <t>MDI Health</t>
+  </si>
+  <si>
+    <t>Eleos Health</t>
+  </si>
+  <si>
+    <t>Exeevo</t>
+  </si>
+  <si>
+    <t>Quinten Health</t>
   </si>
 </sst>
 </file>
@@ -497,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50542D6-AFC3-43C1-B9CC-368A047C0996}">
   <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -561,19 +633,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF0DB2-30F2-49E4-BCD1-AAE960B87D9B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,6 +740,210 @@
       </c>
       <c r="F11">
         <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C6831-D77F-4DFA-8F70-8893DCEBC503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126A751-5BDC-471A-92F6-6610A13EBC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="465" windowWidth="28410" windowHeight="20415" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="23340" yWindow="495" windowWidth="24480" windowHeight="20415" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Main</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Quinten Health</t>
+  </si>
+  <si>
+    <t>Lynx MD</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Capitol</t>
   </si>
 </sst>
 </file>
@@ -633,13 +642,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF0DB2-30F2-49E4-BCD1-AAE960B87D9B}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -946,6 +955,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{23AC5AD7-3BE0-455D-B1C9-03AAB7C9ABB1}"/>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126A751-5BDC-471A-92F6-6610A13EBC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257E9CD-EE68-4615-B90B-05B131FFF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23340" yWindow="495" windowWidth="24480" windowHeight="20415" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="-27915" yWindow="2895" windowWidth="22230" windowHeight="15345" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Main</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Capitol</t>
+  </si>
+  <si>
+    <t>Healthtech 1</t>
+  </si>
+  <si>
+    <t>YC Company</t>
   </si>
 </sst>
 </file>
@@ -642,13 +648,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF0DB2-30F2-49E4-BCD1-AAE960B87D9B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -966,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -975,6 +981,14 @@
       </c>
       <c r="F34">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257E9CD-EE68-4615-B90B-05B131FFF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F22077-540E-B241-B49A-A96185B3B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="2895" windowWidth="22230" windowHeight="15345" activeTab="1" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="9300" yWindow="-18200" windowWidth="21140" windowHeight="15980" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Main</t>
   </si>
@@ -220,6 +223,15 @@
   </si>
   <si>
     <t>YC Company</t>
+  </si>
+  <si>
+    <t>Hims and Hers</t>
+  </si>
+  <si>
+    <t>HIMS</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -262,9 +274,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -285,10 +299,44 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>217.07987299999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>228.14799999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -432,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,18 +630,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50542D6-AFC3-43C1-B9CC-368A047C0996}">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -636,12 +688,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>13.68</v>
+      </c>
+      <c r="E5" s="3">
+        <f>+D5*H5</f>
+        <v>2969.65266264</v>
+      </c>
+      <c r="F5" s="3">
+        <f>+[1]Main!$I$5-[1]Main!$I$6</f>
+        <v>228.14799999999997</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>2741.5046626399999</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+[1]Main!$I$3</f>
+        <v>217.07987299999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45541</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{4292B889-97A5-1649-99D1-EB27BDE52BA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -650,25 +738,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EF0DB2-30F2-49E4-BCD1-AAE960B87D9B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -685,7 +773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -693,17 +781,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -711,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -722,7 +810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -730,12 +818,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -746,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -757,7 +845,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -765,7 +853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -776,7 +864,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -787,7 +875,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -795,7 +883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -803,7 +891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -811,7 +899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -819,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -827,7 +915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -838,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -846,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -857,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -868,7 +956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -879,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -890,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -901,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -912,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -923,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -934,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -945,7 +1033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -953,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -961,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -972,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -983,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>59</v>
       </c>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F22077-540E-B241-B49A-A96185B3B9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B2999-8A11-4D23-BF8A-BF001AB05C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="-18200" windowWidth="21140" windowHeight="15980" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="7570" yWindow="3710" windowWidth="26500" windowHeight="15380" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="2" r:id="rId2"/>
+    <sheet name="Bankruptcies" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Main</t>
   </si>
@@ -232,13 +233,91 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Iqvia</t>
+  </si>
+  <si>
+    <t>Doximity</t>
+  </si>
+  <si>
+    <t>DOCS</t>
+  </si>
+  <si>
+    <t>Progyny</t>
+  </si>
+  <si>
+    <t>PGNY</t>
+  </si>
+  <si>
+    <t>Evolent</t>
+  </si>
+  <si>
+    <t>EVH</t>
+  </si>
+  <si>
+    <t>Goodrx</t>
+  </si>
+  <si>
+    <t>GDRX</t>
+  </si>
+  <si>
+    <t>Veradigm</t>
+  </si>
+  <si>
+    <t>MDRX</t>
+  </si>
+  <si>
+    <t>Accolade</t>
+  </si>
+  <si>
+    <t>ACCD</t>
+  </si>
+  <si>
+    <t>HealthStream</t>
+  </si>
+  <si>
+    <t>HSTM</t>
+  </si>
+  <si>
+    <t>American Well</t>
+  </si>
+  <si>
+    <t>AMWL</t>
+  </si>
+  <si>
+    <t>CLOV</t>
+  </si>
+  <si>
+    <t>Clover Health</t>
+  </si>
+  <si>
+    <t>GoHealth</t>
+  </si>
+  <si>
+    <t>GOCO</t>
+  </si>
+  <si>
+    <t>Valuation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -249,6 +328,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -274,11 +359,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,57 +726,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50542D6-AFC3-43C1-B9CC-368A047C0996}">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2026</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2027</v>
+      </c>
+      <c r="V2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>2025</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>2026</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>2027</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -688,49 +836,203 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43.86</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="8">
+        <v>26.39</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D5">
+      <c r="D8" s="8">
         <v>13.68</v>
       </c>
-      <c r="E5" s="3">
-        <f>+D5*H5</f>
+      <c r="E8" s="3">
+        <f>+D8*H8</f>
         <v>2969.65266264</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F8" s="3">
         <f>+[1]Main!$I$5-[1]Main!$I$6</f>
         <v>228.14799999999997</v>
       </c>
-      <c r="G5" s="3">
-        <f>+E5-F5</f>
+      <c r="G8" s="3">
+        <f>+E8-F8</f>
         <v>2741.5046626399999</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H8" s="3">
         <f>+[1]Main!$I$3</f>
         <v>217.07987299999999</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J8" s="2">
         <v>45541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2640</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2640</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2060</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8">
+        <v>15.77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9.23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="8">
+        <v>28.91</v>
+      </c>
+      <c r="E13" s="3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3.75</v>
+      </c>
+      <c r="E14" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="8">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E16" s="3">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{4292B889-97A5-1649-99D1-EB27BDE52BA9}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{4292B889-97A5-1649-99D1-EB27BDE52BA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -742,21 +1044,21 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -772,26 +1074,32 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -799,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -810,7 +1118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -818,12 +1126,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -834,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -845,7 +1153,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -853,7 +1161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -864,7 +1172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -875,7 +1183,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -883,7 +1191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -891,7 +1199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -899,7 +1207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -907,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -915,7 +1223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -926,7 +1234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -934,7 +1242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -945,7 +1253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -956,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -967,7 +1275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -978,7 +1286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -989,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1000,7 +1308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -1011,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -1022,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1033,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1041,7 +1349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -1049,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1060,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -1071,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>59</v>
       </c>
@@ -1085,4 +1393,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8377EAA-AD2A-46AD-9F0B-496A054DFDEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B2999-8A11-4D23-BF8A-BF001AB05C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB65088-9FD4-41A5-AF3F-25815B95A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7570" yWindow="3710" windowWidth="26500" windowHeight="15380" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="-26835" yWindow="2940" windowWidth="21795" windowHeight="16575" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>Main</t>
   </si>
@@ -232,9 +232,6 @@
     <t>HIMS</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>ROIC</t>
   </si>
   <si>
@@ -311,6 +308,18 @@
   </si>
   <si>
     <t>Valuation</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>IQV</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -409,12 +418,12 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>217.07987299999999</v>
+            <v>235.06953899999999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>228.14799999999997</v>
+            <v>254.071</v>
           </cell>
         </row>
         <row r="6">
@@ -423,7 +432,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -732,17 +741,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="7"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="7"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="P2" s="6">
         <v>2022</v>
@@ -825,33 +835,42 @@
         <v>14</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="8">
         <v>43.86</v>
@@ -860,12 +879,12 @@
         <v>8140</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="8">
         <v>26.39</v>
@@ -874,7 +893,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
@@ -882,37 +901,37 @@
         <v>62</v>
       </c>
       <c r="D8" s="8">
-        <v>13.68</v>
+        <v>31.78</v>
       </c>
       <c r="E8" s="3">
-        <f>+D8*H8</f>
-        <v>2969.65266264</v>
+        <f>+D8*I8</f>
+        <v>7470.5099494200003</v>
       </c>
       <c r="F8" s="3">
         <f>+[1]Main!$I$5-[1]Main!$I$6</f>
-        <v>228.14799999999997</v>
+        <v>254.071</v>
       </c>
       <c r="G8" s="3">
         <f>+E8-F8</f>
-        <v>2741.5046626399999</v>
-      </c>
-      <c r="H8" s="3">
+        <v>7216.4389494200004</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="3">
         <f>+[1]Main!$I$3</f>
-        <v>217.07987299999999</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>63</v>
+        <v>235.06953899999999</v>
       </c>
       <c r="J8" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="8">
         <v>2640</v>
@@ -925,12 +944,12 @@
       <c r="H9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="8">
         <v>4.13</v>
@@ -943,12 +962,12 @@
       <c r="H10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="8">
         <v>15.77</v>
@@ -957,12 +976,12 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
       </c>
       <c r="D12" s="8">
         <v>9.23</v>
@@ -971,12 +990,12 @@
         <v>994</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
       </c>
       <c r="D13" s="8">
         <v>28.91</v>
@@ -985,12 +1004,12 @@
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="8">
         <v>3.75</v>
@@ -999,12 +1018,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="8">
         <v>10.16</v>
@@ -1013,12 +1032,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
       </c>
       <c r="D16" s="8">
         <v>9.5500000000000007</v>
@@ -1047,18 +1066,18 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1075,10 +1094,10 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1089,17 +1108,17 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1118,7 +1137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1126,12 +1145,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1172,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1183,7 +1202,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1191,7 +1210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1199,7 +1218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1207,7 +1226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1215,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1242,7 +1261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1253,7 +1272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -1286,7 +1305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -1330,7 +1349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1349,7 +1368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -1357,7 +1376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1368,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB65088-9FD4-41A5-AF3F-25815B95A808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF31309-51EE-4266-86FA-441609E1B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="2940" windowWidth="21795" windowHeight="16575" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="-25380" yWindow="2280" windowWidth="25215" windowHeight="16575" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Main</t>
   </si>
@@ -320,6 +321,12 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Teladoc</t>
+  </si>
+  <si>
+    <t>TDOC</t>
   </si>
 </sst>
 </file>
@@ -368,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,6 +391,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,6 +443,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Revenue"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>172.16672299999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1243.866</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1541.2739999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -735,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50542D6-AFC3-43C1-B9CC-368A047C0996}">
-  <dimension ref="A2:AC16"/>
+  <dimension ref="A2:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -963,95 +1007,129 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>70</v>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8">
-        <v>15.77</v>
+        <v>11.05</v>
       </c>
       <c r="E11" s="3">
-        <v>1420</v>
+        <f>+D11*I11</f>
+        <v>1902.4422891500001</v>
+      </c>
+      <c r="F11" s="3">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>-297.4079999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <f>+E11-F11</f>
+        <v>2199.8502891500002</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="9">
+        <f>+[2]Main!$K$3</f>
+        <v>172.16672299999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45635</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8">
-        <v>9.23</v>
+        <v>15.77</v>
       </c>
       <c r="E12" s="3">
-        <v>994</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="8">
-        <v>28.91</v>
+        <v>9.23</v>
       </c>
       <c r="E13" s="3">
-        <v>879</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8">
-        <v>3.75</v>
+        <v>28.91</v>
       </c>
       <c r="E14" s="3">
-        <v>302</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D15" s="8">
-        <v>10.16</v>
+        <v>3.75</v>
       </c>
       <c r="E15" s="3">
-        <v>152</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{4292B889-97A5-1649-99D1-EB27BDE52BA9}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{2DFF2FE7-4E65-4328-A16D-4EE5EC6E1F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/HCIT.xlsx
+++ b/HCIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF31309-51EE-4266-86FA-441609E1B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074210C-800C-4D85-9D02-D2762ED6C8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="2280" windowWidth="25215" windowHeight="16575" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{93B8E6DE-D491-4844-AF49-5C0F874FF622}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -785,18 +785,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="7"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="7"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,7 +882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -893,7 +893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -901,7 +901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -909,7 +909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -923,7 +923,7 @@
         <v>8140</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>72</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
@@ -945,11 +945,11 @@
         <v>62</v>
       </c>
       <c r="D8" s="8">
-        <v>31.78</v>
+        <v>38.9</v>
       </c>
       <c r="E8" s="3">
         <f>+D8*I8</f>
-        <v>7470.5099494200003</v>
+        <v>9144.2050670999997</v>
       </c>
       <c r="F8" s="3">
         <f>+[1]Main!$I$5-[1]Main!$I$6</f>
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="3">
         <f>+E8-F8</f>
-        <v>7216.4389494200004</v>
+        <v>8890.1340670999998</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>92</v>
@@ -967,10 +967,10 @@
         <v>235.06953899999999</v>
       </c>
       <c r="J8" s="2">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="H9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="H10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>80</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -1144,18 +1144,18 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1186,17 +1186,17 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1223,12 +1223,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>48</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>59</v>
       </c>
@@ -1498,7 +1498,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
